--- a/附件7.xlsx
+++ b/附件7.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11223" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11368" uniqueCount="346">
   <si>
     <t>hsa-let-7a-5p</t>
   </si>
@@ -630,6 +630,435 @@
     <t>hub miRNAs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Module ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miRNAs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hsa-let-7a-5p, hsa-let-7c-5p, hsa-let-7e-5p, hsa-let-7f-5p, hsa-let-7i-5p, hsa-miR-101-3p, hsa-miR-10a-5p, hsa-miR-122-5p, hsa-miR-125a-5p, hsa-miR-126-3p, hsa-miR-126-5p, hsa-miR-1260b, hsa-miR-128-3p, hsa-miR-130b-3p, hsa-miR-130b-5p, hsa-miR-140-3p, hsa-miR-142-5p, hsa-miR-144-3p, hsa-miR-146b-3p, hsa-miR-146b-5p, hsa-miR-148a-3p, hsa-miR-151a-3p, hsa-miR-151a-5p, hsa-miR-151b, hsa-miR-15b-5p, hsa-miR-16-5p, hsa-miR-17-5p, hsa-miR-182-5p, hsa-miR-183-5p, hsa-miR-185-5p, hsa-miR-186-5p, hsa-miR-191-5p, hsa-miR-196a-5p, hsa-miR-197-3p, hsa-miR-200c-3p, hsa-miR-21-5p, hsa-miR-22-3p, hsa-miR-223-3p, hsa-miR-224-3p, hsa-miR-224-5p, hsa-miR-23a-3p, hsa-miR-25-3p, hsa-miR-26a-5p, hsa-miR-26b-5p, hsa-miR-27a-3p, hsa-miR-27b-3p, hsa-miR-29a-3p, hsa-miR-30a-3p, hsa-miR-30c-5p, hsa-miR-30d-5p, hsa-miR-30e-3p, hsa-miR-30e-5p, hsa-miR-3168, hsa-miR-320a, hsa-miR-320b, hsa-miR-342-3p, hsa-miR-361-5p, hsa-miR-365a-3p, hsa-miR-365b-3p, hsa-miR-374a-5p, hsa-miR-374b-5p, hsa-miR-378a-3p, hsa-miR-423-3p, hsa-miR-423-5p, hsa-miR-425-3p, hsa-miR-425-5p, hsa-miR-4454, hsa-miR-4485-3p, hsa-miR-450b-5p, hsa-miR-451a, hsa-miR-484, hsa-miR-486-3p, hsa-miR-486-5p, hsa-miR-500a-3p, hsa-miR-501-3p, hsa-miR-589-5p, hsa-miR-6087, hsa-miR-628-3p, hsa-miR-629-5p, hsa-miR-7641, hsa-miR-7704, hsa-miR-92a-3p, hsa-miR-92b-3p, hsa-miR-941, hsa-miR-96-5p, hsa-miR-99b-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7b-5p, hsa-miR-107, hsa-miR-1291, hsa-miR-16-2-3p, hsa-miR-184, hsa-miR-19a-3p, hsa-miR-19b-3p, hsa-miR-223-5p, hsa-miR-30b-5p, hsa-miR-32-5p, hsa-miR-320d, hsa-miR-452-5p, hsa-miR-455-5p, hsa-miR-4755-5p, hsa-miR-550a-3-5p, hsa-miR-550a-5p, hsa-miR-5696</t>
+  </si>
+  <si>
+    <t>hsa-let-7g-5p, hsa-miR-10a-3p, hsa-miR-1273h-3p, hsa-miR-1273h-5p, hsa-miR-132-3p, hsa-miR-135b-5p, hsa-miR-181a-2-3p, hsa-miR-183-3p, hsa-miR-195-5p, hsa-miR-20a-5p, hsa-miR-23b-3p, hsa-miR-25-5p, hsa-miR-29b-3p, hsa-miR-3127-5p, hsa-miR-340-3p, hsa-miR-374a-3p, hsa-miR-942-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-103a-3p, hsa-miR-17-3p, hsa-miR-192-5p, hsa-miR-202-3p, hsa-miR-378c, hsa-miR-378d, hsa-miR-411-3p, hsa-miR-4742-5p, hsa-miR-548e-3p, hsa-miR-6834-5p, hsa-miR-767-5p, hsa-miR-93-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-10b-5p, hsa-miR-1270, hsa-miR-21-3p, hsa-miR-491-3p, hsa-miR-502-3p, hsa-miR-532-5p, hsa-miR-574-5p, hsa-miR-6511a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-146a-5p, hsa-miR-3605-5p, hsa-miR-526b-5p, hsa-miR-584-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-181a-5p, hsa-miR-199b-5p, hsa-miR-3679-5p, hsa-miR-509-3p, hsa-miR-99a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-24-3p, hsa-miR-375, hsa-miR-4286, hsa-miR-638</t>
+  </si>
+  <si>
+    <t>hsa-let-7b-5p, hsa-miR-106b-3p, hsa-miR-107, hsa-miR-17-3p, hsa-miR-184, hsa-miR-196a-5p, hsa-miR-199a-5p, hsa-miR-19a-3p, hsa-miR-202-3p, hsa-miR-30b-5p, hsa-miR-411-3p, hsa-miR-450b-5p, hsa-miR-452-5p, hsa-miR-455-5p, hsa-miR-4742-5p, hsa-miR-550a-3-5p, hsa-miR-550a-5p, hsa-miR-6511a-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7g-5p, hsa-miR-10a-3p, hsa-miR-181a-2-3p, hsa-miR-20a-5p, hsa-miR-942-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-103a-3p, hsa-miR-1306-3p, hsa-miR-192-5p, hsa-miR-548e-3p, hsa-miR-619-5p, hsa-miR-629-3p, hsa-miR-664a-5p, hsa-miR-6834-5p, hsa-miR-877-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1273h-5p, hsa-miR-25-5p, hsa-miR-3691-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7a-5p, hsa-let-7c-5p, hsa-let-7e-5p, hsa-let-7f-5p, hsa-let-7i-5p, hsa-miR-101-3p, hsa-miR-10a-5p, hsa-miR-122-5p, hsa-miR-125a-5p, hsa-miR-126-3p, hsa-miR-126-5p, hsa-miR-1260b, hsa-miR-1273h-5p, hsa-miR-1307-5p, hsa-miR-130b-3p, hsa-miR-130b-5p, hsa-miR-135b-5p, hsa-miR-140-3p, hsa-miR-142-5p, hsa-miR-144-3p, hsa-miR-146b-3p, hsa-miR-146b-5p, hsa-miR-148a-3p, hsa-miR-151a-3p, hsa-miR-151a-5p, hsa-miR-151b, hsa-miR-15b-5p, hsa-miR-16-5p, hsa-miR-182-5p, hsa-miR-183-3p, hsa-miR-183-5p, hsa-miR-185-5p, hsa-miR-186-5p, hsa-miR-191-5p, hsa-miR-195-5p, hsa-miR-196a-5p, hsa-miR-197-3p, hsa-miR-200c-3p, hsa-miR-21-5p, hsa-miR-22-3p, hsa-miR-223-3p, hsa-miR-223-5p, hsa-miR-224-5p, hsa-miR-23a-3p, hsa-miR-23b-3p, hsa-miR-25-3p, hsa-miR-25-5p, hsa-miR-26a-5p, hsa-miR-26b-5p, hsa-miR-27a-3p, hsa-miR-27b-3p, hsa-miR-29a-3p, hsa-miR-29b-3p, hsa-miR-30d-5p, hsa-miR-30e-3p, hsa-miR-30e-5p, hsa-miR-3168, hsa-miR-3180-5p, hsa-miR-320a, hsa-miR-320b, hsa-miR-320c, hsa-miR-340-3p, hsa-miR-342-3p, hsa-miR-3609, hsa-miR-361-5p, hsa-miR-3681-5p, hsa-miR-3691-5p, hsa-miR-374a-5p, hsa-miR-374b-5p, hsa-miR-378a-3p, hsa-miR-423-3p, hsa-miR-423-5p, hsa-miR-425-3p, hsa-miR-425-5p, hsa-miR-4454, hsa-miR-4485-3p, hsa-miR-484, hsa-miR-486-5p, hsa-miR-500a-3p, hsa-miR-501-3p, hsa-miR-584-5p, hsa-miR-589-5p, hsa-miR-6087, hsa-miR-628-3p, hsa-miR-629-5p, hsa-miR-642a-3p, hsa-miR-7641, hsa-miR-767-5p, hsa-miR-7704, hsa-miR-877-5p, hsa-miR-92a-3p, hsa-miR-92b-3p, hsa-miR-941, hsa-miR-96-5p, hsa-miR-99b-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7b-5p, hsa-let-7g-5p, hsa-miR-10a-3p, hsa-miR-10b-5p, hsa-miR-1273h-3p, hsa-miR-1291, hsa-miR-181a-2-3p, hsa-miR-184, hsa-miR-19a-3p, hsa-miR-20a-5p, hsa-miR-30b-5p, hsa-miR-452-5p, hsa-miR-455-5p, hsa-miR-550a-3-5p, hsa-miR-550a-5p, hsa-miR-6511a-5p, hsa-miR-942-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-103a-3p, hsa-miR-107, hsa-miR-17-3p, hsa-miR-192-5p, hsa-miR-202-3p, hsa-miR-378d, hsa-miR-411-3p, hsa-miR-4742-5p, hsa-miR-629-3p, hsa-miR-6834-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-106a-5p, hsa-miR-1304-5p, hsa-miR-17-5p, hsa-miR-191-3p, hsa-miR-26a-1-3p, hsa-miR-30a-3p, hsa-miR-30c-5p, hsa-miR-365a-3p, hsa-miR-365b-3p, hsa-miR-3689a-5p, hsa-miR-3689b-5p, hsa-miR-3689e, hsa-miR-374b-3p, hsa-miR-450b-5p, hsa-miR-4516, hsa-miR-451a, hsa-miR-509-3p, hsa-miR-574-5p, hsa-miR-577, hsa-miR-99a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-181a-5p, hsa-miR-3679-5p, hsa-miR-374a-3p, hsa-miR-378c, hsa-miR-532-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7a-5p, hsa-let-7c-5p, hsa-let-7e-5p, hsa-let-7f-5p, hsa-let-7i-5p, hsa-miR-101-3p, hsa-miR-10a-5p, hsa-miR-122-5p, hsa-miR-125a-5p, hsa-miR-126-3p, hsa-miR-126-5p, hsa-miR-1260b, hsa-miR-128-3p, hsa-miR-1307-5p, hsa-miR-130b-3p, hsa-miR-130b-5p, hsa-miR-140-3p, hsa-miR-142-5p, hsa-miR-144-3p, hsa-miR-146b-3p, hsa-miR-146b-5p, hsa-miR-148a-3p, hsa-miR-151a-3p, hsa-miR-151a-5p, hsa-miR-151b, hsa-miR-15b-5p, hsa-miR-16-2-3p, hsa-miR-16-5p, hsa-miR-181a-5p, hsa-miR-182-5p, hsa-miR-183-5p, hsa-miR-185-5p, hsa-miR-186-5p, hsa-miR-191-5p, hsa-miR-196a-5p, hsa-miR-197-3p, hsa-miR-19b-3p, hsa-miR-200c-3p, hsa-miR-21-5p, hsa-miR-22-3p, hsa-miR-224-3p, hsa-miR-224-5p, hsa-miR-23a-3p, hsa-miR-23b-3p, hsa-miR-25-3p, hsa-miR-26a-5p, hsa-miR-26b-5p, hsa-miR-27a-3p, hsa-miR-27b-3p, hsa-miR-29a-3p, hsa-miR-29b-3p, hsa-miR-29c-3p, hsa-miR-30a-3p, hsa-miR-30b-3p, hsa-miR-30d-5p, hsa-miR-30e-3p, hsa-miR-30e-5p, hsa-miR-3168, hsa-miR-3180-5p, hsa-miR-320a, hsa-miR-320b, hsa-miR-320c, hsa-miR-342-3p, hsa-miR-361-5p, hsa-miR-3681-5p, hsa-miR-374a-5p, hsa-miR-374b-5p, hsa-miR-378a-3p, hsa-miR-423-3p, hsa-miR-423-5p, hsa-miR-425-3p, hsa-miR-425-5p, hsa-miR-4454, hsa-miR-4485-3p, hsa-miR-452-5p, hsa-miR-484, hsa-miR-486-5p, hsa-miR-500a-3p, hsa-miR-501-3p, hsa-miR-509-3p, hsa-miR-550a-3-5p, hsa-miR-589-5p, hsa-miR-628-3p, hsa-miR-629-5p, hsa-miR-642a-3p, hsa-miR-744-5p, hsa-miR-7641, hsa-miR-7704, hsa-miR-92a-3p, hsa-miR-92b-3p, hsa-miR-941, hsa-miR-96-5p, hsa-miR-99b-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7b-5p, hsa-miR-106b-3p, hsa-miR-107, hsa-miR-17-3p, hsa-miR-184, hsa-miR-199a-5p, hsa-miR-202-3p, hsa-miR-30b-5p, hsa-miR-411-3p, hsa-miR-450b-5p, hsa-miR-455-5p, hsa-miR-4742-5p, hsa-miR-5696</t>
+  </si>
+  <si>
+    <t>hsa-miR-103a-3p, hsa-miR-1306-3p, hsa-miR-342-5p, hsa-miR-378c, hsa-miR-378d, hsa-miR-532-5p, hsa-miR-629-3p, hsa-miR-6834-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-106a-5p, hsa-miR-1270, hsa-miR-1304-5p, hsa-miR-17-5p, hsa-miR-191-3p, hsa-miR-223-3p, hsa-miR-26a-1-3p, hsa-miR-30c-5p, hsa-miR-365a-3p, hsa-miR-365b-3p, hsa-miR-3689a-5p, hsa-miR-3689b-5p, hsa-miR-3689e, hsa-miR-374b-3p, hsa-miR-375, hsa-miR-451a, hsa-miR-574-5p, hsa-miR-577, hsa-miR-99a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-146a-5p, hsa-miR-192-5p, hsa-miR-3605-5p, hsa-miR-526b-5p, hsa-miR-584-5p, hsa-miR-877-5p, hsa-miR-93-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-199b-5p, hsa-miR-3679-5p, hsa-miR-486-3p</t>
+  </si>
+  <si>
+    <t>hsa-let-7a-5p, hsa-let-7c-5p, hsa-let-7e-5p, hsa-let-7f-5p, hsa-let-7i-5p, hsa-miR-101-3p, hsa-miR-10a-5p, hsa-miR-122-5p, hsa-miR-125a-5p, hsa-miR-126-3p, hsa-miR-126-5p, hsa-miR-130b-3p, hsa-miR-130b-5p, hsa-miR-140-3p, hsa-miR-142-5p, hsa-miR-144-3p, hsa-miR-146b-5p, hsa-miR-148a-3p, hsa-miR-151a-3p, hsa-miR-151a-5p, hsa-miR-151b, hsa-miR-15b-5p, hsa-miR-16-5p, hsa-miR-17-5p, hsa-miR-181a-5p, hsa-miR-182-5p, hsa-miR-183-5p, hsa-miR-185-5p, hsa-miR-186-5p, hsa-miR-191-3p, hsa-miR-191-5p, hsa-miR-197-3p, hsa-miR-200c-3p, hsa-miR-21-5p, hsa-miR-22-3p, hsa-miR-224-3p, hsa-miR-224-5p, hsa-miR-23a-3p, hsa-miR-25-3p, hsa-miR-25-5p, hsa-miR-26a-1-3p, hsa-miR-26a-5p, hsa-miR-26b-5p, hsa-miR-27a-3p, hsa-miR-27b-3p, hsa-miR-29a-3p, hsa-miR-30d-5p, hsa-miR-30e-3p, hsa-miR-30e-5p, hsa-miR-3168, hsa-miR-3180-5p, hsa-miR-320a, hsa-miR-320b, hsa-miR-342-3p, hsa-miR-361-5p, hsa-miR-3689a-5p, hsa-miR-3689b-5p, hsa-miR-3689e, hsa-miR-374a-5p, hsa-miR-374b-3p, hsa-miR-374b-5p, hsa-miR-375, hsa-miR-378a-3p, hsa-miR-423-3p, hsa-miR-423-5p, hsa-miR-425-3p, hsa-miR-425-5p, hsa-miR-4454, hsa-miR-4485-3p, hsa-miR-4516, hsa-miR-452-5p, hsa-miR-484, hsa-miR-486-5p, hsa-miR-500a-3p, hsa-miR-501-3p, hsa-miR-509-3p, hsa-miR-584-5p, hsa-miR-589-5p, hsa-miR-6087, hsa-miR-628-3p, hsa-miR-629-5p, hsa-miR-642a-3p, hsa-miR-7641, hsa-miR-7704, hsa-miR-92a-3p, hsa-miR-92b-3p, hsa-miR-941, hsa-miR-96-5p, hsa-miR-99a-5p, hsa-miR-99b-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7b-5p, hsa-miR-106b-3p, hsa-miR-107, hsa-miR-128-3p, hsa-miR-1291, hsa-miR-135b-5p, hsa-miR-16-2-3p, hsa-miR-17-3p, hsa-miR-184, hsa-miR-196a-5p, hsa-miR-19a-3p, hsa-miR-202-3p, hsa-miR-223-5p, hsa-miR-30b-5p, hsa-miR-32-5p, hsa-miR-320d, hsa-miR-340-3p, hsa-miR-3609, hsa-miR-411-3p, hsa-miR-455-5p, hsa-miR-4742-5p, hsa-miR-4755-5p, hsa-miR-550a-3-5p, hsa-miR-550a-5p, hsa-miR-5696, hsa-miR-6511a-5p, hsa-miR-664a-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7g-5p, hsa-miR-10a-3p, hsa-miR-1273h-3p, hsa-miR-181a-2-3p, hsa-miR-20a-5p, hsa-miR-23b-3p, hsa-miR-526b-5p, hsa-miR-942-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-103a-3p, hsa-miR-1260b, hsa-miR-1908-5p, hsa-miR-378c, hsa-miR-378d, hsa-miR-532-5p, hsa-miR-629-3p, hsa-miR-6834-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-10b-5p, hsa-miR-1270, hsa-miR-21-3p, hsa-miR-3127-5p, hsa-miR-3679-5p, hsa-miR-491-3p, hsa-miR-574-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1273h-5p, hsa-miR-183-3p, hsa-miR-195-5p, hsa-miR-29b-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-132-3p, hsa-miR-30a-3p, hsa-miR-374a-3p, hsa-miR-4286, hsa-miR-450b-5p, hsa-miR-451a, hsa-miR-638</t>
+  </si>
+  <si>
+    <t>hsa-miR-146b-3p, hsa-miR-320c, hsa-miR-339-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-15b-3p, hsa-miR-181b-5p, hsa-miR-199b-5p, hsa-miR-19b-3p, hsa-miR-3180, hsa-miR-3180-3p, hsa-miR-486-3p, hsa-miR-744-5p, hsa-miR-9-3p</t>
+  </si>
+  <si>
+    <t>hsa-let-7a-5p, hsa-let-7b-5p, hsa-let-7c-5p, hsa-let-7e-5p, hsa-let-7f-5p, hsa-let-7i-5p, hsa-miR-101-3p, hsa-miR-103a-3p, hsa-miR-10a-5p, hsa-miR-122-5p, hsa-miR-1224-5p, hsa-miR-125a-5p, hsa-miR-126-3p, hsa-miR-126-5p, hsa-miR-1260b, hsa-miR-130b-3p, hsa-miR-130b-5p, hsa-miR-140-3p, hsa-miR-142-5p, hsa-miR-144-3p, hsa-miR-146b-5p, hsa-miR-148a-3p, hsa-miR-151a-3p, hsa-miR-151a-5p, hsa-miR-151b, hsa-miR-15b-5p, hsa-miR-16-5p, hsa-miR-182-5p, hsa-miR-183-5p, hsa-miR-184, hsa-miR-185-5p, hsa-miR-186-5p, hsa-miR-191-5p, hsa-miR-196a-5p, hsa-miR-197-3p, hsa-miR-200c-3p, hsa-miR-21-5p, hsa-miR-22-3p, hsa-miR-224-5p, hsa-miR-23a-3p, hsa-miR-25-3p, hsa-miR-26a-5p, hsa-miR-26b-5p, hsa-miR-27a-3p, hsa-miR-27b-3p, hsa-miR-29a-3p, hsa-miR-29c-3p, hsa-miR-30a-3p, hsa-miR-30d-5p, hsa-miR-30e-3p, hsa-miR-30e-5p, hsa-miR-3168, hsa-miR-3180-5p, hsa-miR-320a, hsa-miR-320b, hsa-miR-342-3p, hsa-miR-3609, hsa-miR-361-5p, hsa-miR-3681-5p, hsa-miR-374a-5p, hsa-miR-374b-5p, hsa-miR-378a-3p, hsa-miR-423-3p, hsa-miR-423-5p, hsa-miR-425-5p, hsa-miR-4454, hsa-miR-4485-3p, hsa-miR-451a, hsa-miR-484, hsa-miR-486-5p, hsa-miR-500a-3p, hsa-miR-501-3p, hsa-miR-584-5p, hsa-miR-589-5p, hsa-miR-628-3p, hsa-miR-629-5p, hsa-miR-642a-3p, hsa-miR-7641, hsa-miR-7704, hsa-miR-92a-3p, hsa-miR-92b-3p, hsa-miR-941, hsa-miR-96-5p, hsa-miR-99b-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7g-5p, hsa-miR-10a-3p, hsa-miR-181a-2-3p, hsa-miR-20a-5p, hsa-miR-378c, hsa-miR-378d, hsa-miR-4516, hsa-miR-942-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-106a-5p, hsa-miR-1270, hsa-miR-1304-5p, hsa-miR-17-5p, hsa-miR-191-3p, hsa-miR-223-3p, hsa-miR-26a-1-3p, hsa-miR-30c-5p, hsa-miR-365a-3p, hsa-miR-365b-3p, hsa-miR-3689a-5p, hsa-miR-3689b-5p, hsa-miR-3689e, hsa-miR-374b-3p, hsa-miR-375, hsa-miR-574-5p, hsa-miR-577, hsa-miR-6087, hsa-miR-99a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-10b-5p, hsa-miR-1291, hsa-miR-19a-3p, hsa-miR-30b-5p, hsa-miR-425-3p, hsa-miR-452-5p, hsa-miR-455-5p, hsa-miR-550a-3-5p, hsa-miR-550a-5p, hsa-miR-6511a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1255a, hsa-miR-629-3p, hsa-miR-664a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1273h-3p, hsa-miR-132-3p, hsa-miR-23b-3p, hsa-miR-29b-3p, hsa-miR-340-3p, hsa-miR-4286</t>
+  </si>
+  <si>
+    <t>hsa-miR-1273h-5p, hsa-miR-183-3p, hsa-miR-195-5p, hsa-miR-25-5p, hsa-miR-3691-5p, hsa-miR-877-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-146b-3p, hsa-miR-320d, hsa-miR-339-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-181b-5p, hsa-miR-199b-5p, hsa-miR-19b-3p, hsa-miR-486-3p, hsa-miR-9-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-192-5p, hsa-miR-24-3p, hsa-miR-532-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-199a-5p, hsa-miR-215-5p, hsa-miR-30b-3p, hsa-miR-502-3p, hsa-miR-6511a-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-21-3p, hsa-miR-3127-5p, hsa-miR-3679-5p, hsa-miR-491-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-223-5p, hsa-miR-32-5p, hsa-miR-4755-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-224-3p, hsa-miR-33b-3p, hsa-miR-744-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7a-5p, hsa-let-7c-5p, hsa-let-7e-5p, hsa-let-7f-5p, hsa-let-7i-5p, hsa-miR-101-3p, hsa-miR-10a-5p, hsa-miR-122-5p, hsa-miR-125a-5p, hsa-miR-126-3p, hsa-miR-126-5p, hsa-miR-1260b, hsa-miR-1307-5p, hsa-miR-130b-3p, hsa-miR-130b-5p, hsa-miR-140-3p, hsa-miR-142-5p, hsa-miR-144-3p, hsa-miR-146b-5p, hsa-miR-148a-3p, hsa-miR-151a-3p, hsa-miR-151a-5p, hsa-miR-151b, hsa-miR-15b-5p, hsa-miR-16-5p, hsa-miR-181a-5p, hsa-miR-182-5p, hsa-miR-183-5p, hsa-miR-185-5p, hsa-miR-186-5p, hsa-miR-191-5p, hsa-miR-192-5p, hsa-miR-196a-5p, hsa-miR-197-3p, hsa-miR-199a-5p, hsa-miR-200c-3p, hsa-miR-21-5p, hsa-miR-215-5p, hsa-miR-22-3p, hsa-miR-224-5p, hsa-miR-23a-3p, hsa-miR-23b-3p, hsa-miR-25-3p, hsa-miR-26a-5p, hsa-miR-26b-5p, hsa-miR-27a-3p, hsa-miR-27b-3p, hsa-miR-29a-3p, hsa-miR-29c-3p, hsa-miR-30d-5p, hsa-miR-30e-3p, hsa-miR-30e-5p, hsa-miR-3168, hsa-miR-3180-5p, hsa-miR-320a, hsa-miR-320b, hsa-miR-320c, hsa-miR-342-3p, hsa-miR-3609, hsa-miR-361-5p, hsa-miR-3681-5p, hsa-miR-374a-5p, hsa-miR-374b-5p, hsa-miR-378a-3p, hsa-miR-423-3p, hsa-miR-423-5p, hsa-miR-425-3p, hsa-miR-425-5p, hsa-miR-4286, hsa-miR-4454, hsa-miR-4485-3p, hsa-miR-4516, hsa-miR-452-5p, hsa-miR-484, hsa-miR-486-5p, hsa-miR-500a-3p, hsa-miR-501-3p, hsa-miR-584-5p, hsa-miR-589-5p, hsa-miR-6087, hsa-miR-628-3p, hsa-miR-629-5p, hsa-miR-642a-3p, hsa-miR-7641, hsa-miR-7704, hsa-miR-92a-3p, hsa-miR-92b-3p, hsa-miR-941, hsa-miR-96-5p, hsa-miR-99b-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7b-5p, hsa-miR-107, hsa-miR-128-3p, hsa-miR-1291, hsa-miR-16-2-3p, hsa-miR-17-3p, hsa-miR-184, hsa-miR-19a-3p, hsa-miR-202-3p, hsa-miR-30b-5p, hsa-miR-320d, hsa-miR-411-3p, hsa-miR-455-5p, hsa-miR-4742-5p, hsa-miR-550a-3-5p, hsa-miR-550a-5p, hsa-miR-5696, hsa-miR-6511a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-103a-3p, hsa-miR-1306-3p, hsa-miR-342-5p, hsa-miR-378c, hsa-miR-378d, hsa-miR-532-5p, hsa-miR-629-3p, hsa-miR-664a-5p, hsa-miR-6834-5p, hsa-miR-767-5p, hsa-miR-93-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-106a-5p, hsa-miR-1270, hsa-miR-17-5p, hsa-miR-191-3p, hsa-miR-223-3p, hsa-miR-26a-1-3p, hsa-miR-30c-5p, hsa-miR-365a-3p, hsa-miR-365b-3p, hsa-miR-3689a-5p, hsa-miR-3689b-5p, hsa-miR-3689e, hsa-miR-374b-3p, hsa-miR-375, hsa-miR-451a, hsa-miR-509-3p, hsa-miR-577, hsa-miR-638, hsa-miR-99a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-146b-3p, hsa-miR-29b-3p, hsa-miR-339-3p, hsa-miR-502-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-15b-3p, hsa-miR-181b-5p, hsa-miR-19b-3p, hsa-miR-224-3p, hsa-miR-3180, hsa-miR-3180-3p, hsa-miR-33b-3p, hsa-miR-486-3p, hsa-miR-744-5p, hsa-miR-9-3p</t>
+  </si>
+  <si>
+    <t>hsa-let-7a-5p, hsa-let-7c-5p, hsa-let-7e-5p, hsa-let-7f-5p, hsa-let-7g-5p, hsa-let-7i-5p, hsa-miR-101-3p, hsa-miR-10a-5p, hsa-miR-122-5p, hsa-miR-125a-5p, hsa-miR-126-3p, hsa-miR-126-5p, hsa-miR-1260b, hsa-miR-1307-5p, hsa-miR-130b-3p, hsa-miR-130b-5p, hsa-miR-140-3p, hsa-miR-142-5p, hsa-miR-144-3p, hsa-miR-146b-5p, hsa-miR-148a-3p, hsa-miR-151a-3p, hsa-miR-151a-5p, hsa-miR-151b, hsa-miR-15b-5p, hsa-miR-16-5p, hsa-miR-181b-5p, hsa-miR-182-5p, hsa-miR-183-5p, hsa-miR-185-5p, hsa-miR-186-5p, hsa-miR-191-5p, hsa-miR-196a-5p, hsa-miR-197-3p, hsa-miR-19b-3p, hsa-miR-200c-3p, hsa-miR-21-5p, hsa-miR-22-3p, hsa-miR-224-5p, hsa-miR-23a-3p, hsa-miR-23b-3p, hsa-miR-25-3p, hsa-miR-26a-5p, hsa-miR-26b-5p, hsa-miR-27a-3p, hsa-miR-27b-3p, hsa-miR-29a-3p, hsa-miR-30d-5p, hsa-miR-30e-3p, hsa-miR-30e-5p, hsa-miR-3168, hsa-miR-3180-5p, hsa-miR-320a, hsa-miR-320b, hsa-miR-320c, hsa-miR-342-3p, hsa-miR-361-5p, hsa-miR-3681-5p, hsa-miR-374a-5p, hsa-miR-374b-5p, hsa-miR-378a-3p, hsa-miR-423-3p, hsa-miR-423-5p, hsa-miR-425-3p, hsa-miR-425-5p, hsa-miR-4454, hsa-miR-4485-3p, hsa-miR-452-5p, hsa-miR-484, hsa-miR-486-5p, hsa-miR-500a-3p, hsa-miR-501-3p, hsa-miR-584-5p, hsa-miR-589-5p, hsa-miR-6087, hsa-miR-628-3p, hsa-miR-629-5p, hsa-miR-6740-5p, hsa-miR-7641, hsa-miR-7704, hsa-miR-92a-3p, hsa-miR-92b-3p, hsa-miR-941, hsa-miR-96-5p, hsa-miR-99b-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7b-5p, hsa-miR-106b-3p, hsa-miR-10b-5p, hsa-miR-1291, hsa-miR-19a-3p, hsa-miR-30b-5p, hsa-miR-32-5p, hsa-miR-340-3p, hsa-miR-4286, hsa-miR-455-5p, hsa-miR-550a-3-5p, hsa-miR-550a-5p, hsa-miR-5696</t>
+  </si>
+  <si>
+    <t>hsa-miR-103a-3p, hsa-miR-17-3p, hsa-miR-1908-5p, hsa-miR-202-3p, hsa-miR-378c, hsa-miR-378d, hsa-miR-526b-5p, hsa-miR-532-5p, hsa-miR-548e-3p, hsa-miR-629-3p, hsa-miR-6834-5p, hsa-miR-767-5p, hsa-miR-93-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-106a-5p, hsa-miR-107, hsa-miR-1270, hsa-miR-1304-5p, hsa-miR-16-2-3p, hsa-miR-17-5p, hsa-miR-26a-1-3p, hsa-miR-30a-3p, hsa-miR-30c-5p, hsa-miR-365a-3p, hsa-miR-365b-3p, hsa-miR-374b-3p, hsa-miR-450b-5p, hsa-miR-4516, hsa-miR-451a, hsa-miR-574-5p, hsa-miR-577</t>
+  </si>
+  <si>
+    <t>hsa-miR-10a-3p, hsa-miR-1273h-3p, hsa-miR-181a-2-3p, hsa-miR-20a-5p, hsa-miR-223-3p, hsa-miR-29b-3p, hsa-miR-942-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-183-3p, hsa-miR-195-5p, hsa-miR-877-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-21-3p, hsa-miR-3127-5p, hsa-miR-3679-5p, hsa-miR-491-3p, hsa-miR-6511a-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7a-5p, hsa-let-7c-5p, hsa-let-7e-5p, hsa-let-7f-5p, hsa-let-7g-5p, hsa-let-7i-5p, hsa-miR-101-3p, hsa-miR-103a-3p, hsa-miR-10a-5p, hsa-miR-122-5p, hsa-miR-125a-5p, hsa-miR-126-3p, hsa-miR-126-5p, hsa-miR-130b-3p, hsa-miR-130b-5p, hsa-miR-140-3p, hsa-miR-142-5p, hsa-miR-144-3p, hsa-miR-146a-5p, hsa-miR-146b-3p, hsa-miR-146b-5p, hsa-miR-148a-3p, hsa-miR-151a-3p, hsa-miR-151a-5p, hsa-miR-151b, hsa-miR-15b-5p, hsa-miR-16-5p, hsa-miR-181a-5p, hsa-miR-182-5p, hsa-miR-183-5p, hsa-miR-185-5p, hsa-miR-186-5p, hsa-miR-191-5p, hsa-miR-192-5p, hsa-miR-197-3p, hsa-miR-200c-3p, hsa-miR-21-5p, hsa-miR-22-3p, hsa-miR-223-3p, hsa-miR-224-5p, hsa-miR-23a-3p, hsa-miR-25-3p, hsa-miR-26a-5p, hsa-miR-26b-5p, hsa-miR-27a-3p, hsa-miR-27b-3p, hsa-miR-29a-3p, hsa-miR-29c-3p, hsa-miR-30c-5p, hsa-miR-30d-5p, hsa-miR-30e-3p, hsa-miR-30e-5p, hsa-miR-3168, hsa-miR-3180-5p, hsa-miR-320a, hsa-miR-320b, hsa-miR-320c, hsa-miR-342-3p, hsa-miR-3605-5p, hsa-miR-361-5p, hsa-miR-374a-5p, hsa-miR-374b-5p, hsa-miR-378a-3p, hsa-miR-378c, hsa-miR-378d, hsa-miR-423-3p, hsa-miR-423-5p, hsa-miR-425-3p, hsa-miR-425-5p, hsa-miR-4454, hsa-miR-4485-3p, hsa-miR-484, hsa-miR-486-5p, hsa-miR-500a-3p, hsa-miR-501-3p, hsa-miR-526b-5p, hsa-miR-532-5p, hsa-miR-584-5p, hsa-miR-589-5p, hsa-miR-628-3p, hsa-miR-629-5p, hsa-miR-642a-3p, hsa-miR-671-3p, hsa-miR-7641, hsa-miR-767-5p, hsa-miR-7704, hsa-miR-877-5p, hsa-miR-92a-3p, hsa-miR-92b-3p, hsa-miR-93-5p, hsa-miR-941, hsa-miR-96-5p, hsa-miR-99b-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7b-5p, hsa-miR-106b-3p, hsa-miR-107, hsa-miR-128-3p, hsa-miR-17-3p, hsa-miR-184, hsa-miR-196a-5p, hsa-miR-19a-3p, hsa-miR-202-3p, hsa-miR-223-5p, hsa-miR-30b-5p, hsa-miR-32-5p, hsa-miR-320d, hsa-miR-340-3p, hsa-miR-3609, hsa-miR-411-3p, hsa-miR-455-5p, hsa-miR-4755-5p, hsa-miR-550a-3-5p, hsa-miR-550a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1270, hsa-miR-1304-5p, hsa-miR-17-5p, hsa-miR-191-3p, hsa-miR-199b-5p, hsa-miR-26a-1-3p, hsa-miR-365a-3p, hsa-miR-365b-3p, hsa-miR-3689a-5p, hsa-miR-3689b-5p, hsa-miR-3689e, hsa-miR-374b-3p, hsa-miR-375, hsa-miR-4286, hsa-miR-4516, hsa-miR-451a, hsa-miR-452-5p, hsa-miR-502-3p, hsa-miR-509-3p, hsa-miR-574-5p, hsa-miR-577, hsa-miR-6087, hsa-miR-99a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1273h-5p, hsa-miR-183-3p, hsa-miR-25-5p, hsa-miR-3691-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-15b-3p, hsa-miR-16-2-3p, hsa-miR-181b-5p, hsa-miR-19b-3p, hsa-miR-3180, hsa-miR-3180-3p, hsa-miR-33b-3p, hsa-miR-486-3p, hsa-miR-744-5p, hsa-miR-9-3p</t>
+  </si>
+  <si>
+    <t>hsa-let-7a-5p, hsa-let-7c-5p, hsa-let-7e-5p, hsa-let-7f-5p, hsa-let-7i-5p, hsa-miR-101-3p, hsa-miR-103a-3p, hsa-miR-10a-5p, hsa-miR-10b-5p, hsa-miR-122-5p, hsa-miR-1224-5p, hsa-miR-125a-5p, hsa-miR-126-3p, hsa-miR-126-5p, hsa-miR-1260b, hsa-miR-1306-3p, hsa-miR-1307-5p, hsa-miR-130b-3p, hsa-miR-130b-5p, hsa-miR-140-3p, hsa-miR-142-5p, hsa-miR-144-3p, hsa-miR-146b-5p, hsa-miR-148a-3p, hsa-miR-151a-3p, hsa-miR-151a-5p, hsa-miR-151b, hsa-miR-15b-5p, hsa-miR-16-5p, hsa-miR-182-5p, hsa-miR-183-5p, hsa-miR-185-5p, hsa-miR-186-5p, hsa-miR-1908-5p, hsa-miR-191-5p, hsa-miR-200c-3p, hsa-miR-21-3p, hsa-miR-21-5p, hsa-miR-215-5p, hsa-miR-22-3p, hsa-miR-224-5p, hsa-miR-23a-3p, hsa-miR-23b-3p, hsa-miR-25-3p, hsa-miR-26a-5p, hsa-miR-26b-5p, hsa-miR-27a-3p, hsa-miR-27b-3p, hsa-miR-29a-3p, hsa-miR-30d-5p, hsa-miR-30e-3p, hsa-miR-30e-5p, hsa-miR-3168, hsa-miR-3180-5p, hsa-miR-320a, hsa-miR-320b, hsa-miR-320c, hsa-miR-342-3p, hsa-miR-342-5p, hsa-miR-3609, hsa-miR-361-5p, hsa-miR-3681-5p, hsa-miR-374a-5p, hsa-miR-374b-5p, hsa-miR-378a-3p, hsa-miR-378c, hsa-miR-378d, hsa-miR-423-3p, hsa-miR-423-5p, hsa-miR-425-3p, hsa-miR-425-5p, hsa-miR-4454, hsa-miR-4485-3p, hsa-miR-484, hsa-miR-486-5p, hsa-miR-491-3p, hsa-miR-500a-3p, hsa-miR-501-3p, hsa-miR-589-5p, hsa-miR-6087, hsa-miR-628-3p, hsa-miR-629-3p, hsa-miR-629-5p, hsa-miR-664a-5p, hsa-miR-6834-5p, hsa-miR-7641, hsa-miR-7704, hsa-miR-92a-3p, hsa-miR-92b-3p, hsa-miR-941, hsa-miR-96-5p, hsa-miR-99b-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7b-5p, hsa-miR-106b-3p, hsa-miR-107, hsa-miR-128-3p, hsa-miR-16-2-3p, hsa-miR-17-3p, hsa-miR-184, hsa-miR-196a-5p, hsa-miR-197-3p, hsa-miR-199a-5p, hsa-miR-19b-3p, hsa-miR-202-3p, hsa-miR-224-3p, hsa-miR-30b-5p, hsa-miR-320d, hsa-miR-33b-3p, hsa-miR-340-3p, hsa-miR-411-3p, hsa-miR-452-5p, hsa-miR-455-5p, hsa-miR-4742-5p, hsa-miR-5696, hsa-miR-744-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7g-5p, hsa-miR-10a-3p, hsa-miR-1291, hsa-miR-19a-3p, hsa-miR-550a-5p, hsa-miR-6511a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-106a-5p, hsa-miR-1270, hsa-miR-1304-5p, hsa-miR-132-3p, hsa-miR-17-5p, hsa-miR-181a-5p, hsa-miR-191-3p, hsa-miR-223-3p, hsa-miR-26a-1-3p, hsa-miR-30c-5p, hsa-miR-365a-3p, hsa-miR-365b-3p, hsa-miR-3689a-5p, hsa-miR-3689b-5p, hsa-miR-3689e, hsa-miR-374b-3p, hsa-miR-375, hsa-miR-4286, hsa-miR-4516, hsa-miR-451a, hsa-miR-509-3p, hsa-miR-532-5p, hsa-miR-574-5p, hsa-miR-577, hsa-miR-638, hsa-miR-99a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1273h-5p, hsa-miR-25-5p, hsa-miR-3691-5p, hsa-miR-548e-3p, hsa-miR-877-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-135b-5p, hsa-miR-183-3p, hsa-miR-195-5p, hsa-miR-29b-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-146a-5p, hsa-miR-3605-5p, hsa-miR-3679-5p, hsa-miR-526b-5p, hsa-miR-584-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-15b-3p, hsa-miR-181b-5p, hsa-miR-199b-5p, hsa-miR-3180, hsa-miR-3180-3p, hsa-miR-486-3p, hsa-miR-9-3p</t>
+  </si>
+  <si>
+    <t>hsa-let-7a-5p, hsa-let-7c-5p, hsa-let-7e-5p, hsa-let-7f-5p, hsa-let-7i-5p, hsa-miR-101-3p, hsa-miR-10a-5p, hsa-miR-122-5p, hsa-miR-1224-5p, hsa-miR-125a-5p, hsa-miR-126-3p, hsa-miR-126-5p, hsa-miR-128-3p, hsa-miR-130b-3p, hsa-miR-130b-5p, hsa-miR-140-3p, hsa-miR-142-5p, hsa-miR-144-3p, hsa-miR-146b-5p, hsa-miR-148a-3p, hsa-miR-151a-3p, hsa-miR-151a-5p, hsa-miR-151b, hsa-miR-15b-5p, hsa-miR-16-5p, hsa-miR-182-5p, hsa-miR-183-5p, hsa-miR-185-5p, hsa-miR-186-5p, hsa-miR-191-5p, hsa-miR-196a-5p, hsa-miR-200c-3p, hsa-miR-21-5p, hsa-miR-22-3p, hsa-miR-224-5p, hsa-miR-23a-3p, hsa-miR-25-3p, hsa-miR-26a-5p, hsa-miR-26b-5p, hsa-miR-27a-3p, hsa-miR-27b-3p, hsa-miR-29a-3p, hsa-miR-29c-3p, hsa-miR-30d-5p, hsa-miR-30e-3p, hsa-miR-30e-5p, hsa-miR-3168, hsa-miR-3180-5p, hsa-miR-32-5p, hsa-miR-320a, hsa-miR-320b, hsa-miR-342-3p, hsa-miR-3609, hsa-miR-361-5p, hsa-miR-374a-5p, hsa-miR-374b-5p, hsa-miR-378a-3p, hsa-miR-379-5p, hsa-miR-423-3p, hsa-miR-423-5p, hsa-miR-425-3p, hsa-miR-425-5p, hsa-miR-4286, hsa-miR-4454, hsa-miR-4485-3p, hsa-miR-452-5p, hsa-miR-484, hsa-miR-486-5p, hsa-miR-500a-3p, hsa-miR-501-3p, hsa-miR-550a-3-5p, hsa-miR-550a-5p, hsa-miR-589-5p, hsa-miR-628-3p, hsa-miR-629-5p, hsa-miR-642a-3p, hsa-miR-7641, hsa-miR-92a-3p, hsa-miR-92b-3p, hsa-miR-941, hsa-miR-96-5p, hsa-miR-99b-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7b-5p, hsa-miR-106b-3p, hsa-miR-107, hsa-miR-1291, hsa-miR-16-2-3p, hsa-miR-17-3p, hsa-miR-184, hsa-miR-19a-3p, hsa-miR-202-3p, hsa-miR-30b-5p, hsa-miR-411-3p, hsa-miR-450b-5p, hsa-miR-455-5p, hsa-miR-5696, hsa-miR-6511a-5p, hsa-miR-664a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-103a-3p, hsa-miR-629-3p, hsa-miR-6834-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-106a-5p, hsa-miR-1270, hsa-miR-1304-5p, hsa-miR-146b-3p, hsa-miR-17-5p, hsa-miR-191-3p, hsa-miR-197-3p, hsa-miR-223-3p, hsa-miR-224-3p, hsa-miR-26a-1-3p, hsa-miR-30c-5p, hsa-miR-365a-3p, hsa-miR-365b-3p, hsa-miR-3689a-5p, hsa-miR-3689b-5p, hsa-miR-3689e, hsa-miR-374b-3p, hsa-miR-375, hsa-miR-4516, hsa-miR-451a, hsa-miR-509-3p, hsa-miR-574-5p, hsa-miR-577, hsa-miR-99a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-10a-3p, hsa-miR-1273h-3p, hsa-miR-1273h-5p, hsa-miR-132-3p, hsa-miR-181a-2-3p, hsa-miR-183-3p, hsa-miR-195-5p, hsa-miR-20a-5p, hsa-miR-23b-3p, hsa-miR-25-5p, hsa-miR-29b-3p, hsa-miR-30a-3p, hsa-miR-3127-5p, hsa-miR-340-3p, hsa-miR-374a-3p, hsa-miR-454-5p, hsa-miR-6087, hsa-miR-638, hsa-miR-942-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-146a-5p, hsa-miR-181a-5p, hsa-miR-3679-5p, hsa-miR-378c, hsa-miR-378d, hsa-miR-532-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-15b-3p, hsa-miR-181b-5p, hsa-miR-199b-5p, hsa-miR-19b-3p, hsa-miR-3180, hsa-miR-3180-3p, hsa-miR-320d, hsa-miR-33b-3p, hsa-miR-486-3p, hsa-miR-744-5p, hsa-miR-9-3p</t>
+  </si>
+  <si>
+    <t>hsa-let-7a-5p, hsa-let-7c-5p, hsa-let-7e-5p, hsa-let-7f-5p, hsa-let-7i-5p, hsa-miR-101-3p, hsa-miR-103a-3p, hsa-miR-10a-5p, hsa-miR-122-5p, hsa-miR-1224-5p, hsa-miR-125a-5p, hsa-miR-126-3p, hsa-miR-126-5p, hsa-miR-130b-3p, hsa-miR-130b-5p, hsa-miR-140-3p, hsa-miR-142-5p, hsa-miR-144-3p, hsa-miR-146b-5p, hsa-miR-148a-3p, hsa-miR-151a-3p, hsa-miR-151a-5p, hsa-miR-151b, hsa-miR-15b-5p, hsa-miR-16-5p, hsa-miR-182-5p, hsa-miR-183-5p, hsa-miR-185-5p, hsa-miR-186-5p, hsa-miR-191-5p, hsa-miR-192-5p, hsa-miR-197-3p, hsa-miR-200c-3p, hsa-miR-21-5p, hsa-miR-22-3p, hsa-miR-224-5p, hsa-miR-23a-3p, hsa-miR-25-3p, hsa-miR-25-5p, hsa-miR-26a-5p, hsa-miR-26b-5p, hsa-miR-27a-3p, hsa-miR-27b-3p, hsa-miR-29a-3p, hsa-miR-30d-5p, hsa-miR-30e-3p, hsa-miR-30e-5p, hsa-miR-3168, hsa-miR-3180-5p, hsa-miR-320a, hsa-miR-320b, hsa-miR-342-3p, hsa-miR-361-5p, hsa-miR-374a-5p, hsa-miR-374b-5p, hsa-miR-378a-3p, hsa-miR-423-3p, hsa-miR-423-5p, hsa-miR-425-3p, hsa-miR-425-5p, hsa-miR-4454, hsa-miR-4485-3p, hsa-miR-452-5p, hsa-miR-4677-3p, hsa-miR-484, hsa-miR-486-5p, hsa-miR-500a-3p, hsa-miR-501-3p, hsa-miR-584-5p, hsa-miR-589-5p, hsa-miR-628-3p, hsa-miR-629-5p, hsa-miR-642a-3p, hsa-miR-664a-5p, hsa-miR-7641, hsa-miR-7704, hsa-miR-877-5p, hsa-miR-92a-1-5p, hsa-miR-92a-3p, hsa-miR-92b-3p, hsa-miR-941, hsa-miR-96-5p, hsa-miR-99b-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7b-5p, hsa-miR-106b-3p, hsa-miR-107, hsa-miR-128-3p, hsa-miR-16-2-3p, hsa-miR-17-3p, hsa-miR-184, hsa-miR-196a-5p, hsa-miR-199a-5p, hsa-miR-19a-3p, hsa-miR-19b-3p, hsa-miR-202-3p, hsa-miR-29c-3p, hsa-miR-30b-5p, hsa-miR-32-5p, hsa-miR-320d, hsa-miR-340-3p, hsa-miR-411-3p, hsa-miR-450b-5p, hsa-miR-451a, hsa-miR-455-5p, hsa-miR-550a-3-5p, hsa-miR-550a-5p, hsa-miR-5696, hsa-miR-6511a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-106a-5p, hsa-miR-1304-5p, hsa-miR-17-5p, hsa-miR-191-3p, hsa-miR-223-3p, hsa-miR-26a-1-3p, hsa-miR-30c-5p, hsa-miR-365a-3p, hsa-miR-365b-3p, hsa-miR-3689a-5p, hsa-miR-3689b-5p, hsa-miR-3689e, hsa-miR-374b-3p, hsa-miR-375, hsa-miR-4516, hsa-miR-577, hsa-miR-6087, hsa-miR-99a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-10b-5p, hsa-miR-1270, hsa-miR-1291, hsa-miR-21-3p, hsa-miR-491-3p, hsa-miR-532-5p, hsa-miR-574-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1260b, hsa-miR-1908-5p, hsa-miR-320c, hsa-miR-629-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-135b-5p, hsa-miR-183-3p, hsa-miR-195-5p, hsa-miR-223-5p, hsa-miR-29b-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-15b-3p, hsa-miR-181b-5p, hsa-miR-224-3p, hsa-miR-3180, hsa-miR-3180-3p, hsa-miR-33b-3p, hsa-miR-744-5p, hsa-miR-9-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-181a-5p, hsa-miR-199b-5p, hsa-miR-3679-5p, hsa-miR-486-3p, hsa-miR-509-3p, hsa-miR-767-5p, hsa-miR-93-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7a-5p, hsa-let-7c-5p, hsa-let-7e-5p, hsa-let-7f-5p, hsa-let-7i-5p, hsa-miR-101-3p, hsa-miR-10a-5p, hsa-miR-122-5p, hsa-miR-125a-5p, hsa-miR-126-3p, hsa-miR-126-5p, hsa-miR-128-3p, hsa-miR-1307-5p, hsa-miR-130b-3p, hsa-miR-130b-5p, hsa-miR-140-3p, hsa-miR-142-5p, hsa-miR-144-3p, hsa-miR-146b-5p, hsa-miR-148a-3p, hsa-miR-151a-3p, hsa-miR-151a-5p, hsa-miR-151b, hsa-miR-15b-5p, hsa-miR-16-5p, hsa-miR-181a-5p, hsa-miR-182-5p, hsa-miR-183-5p, hsa-miR-184, hsa-miR-185-5p, hsa-miR-186-5p, hsa-miR-191-5p, hsa-miR-196a-5p, hsa-miR-197-3p, hsa-miR-19b-3p, hsa-miR-200c-3p, hsa-miR-21-5p, hsa-miR-22-3p, hsa-miR-224-3p, hsa-miR-224-5p, hsa-miR-23a-3p, hsa-miR-23b-3p, hsa-miR-25-3p, hsa-miR-26a-5p, hsa-miR-26b-5p, hsa-miR-27a-3p, hsa-miR-27b-3p, hsa-miR-29a-3p, hsa-miR-30d-5p, hsa-miR-30e-3p, hsa-miR-30e-5p, hsa-miR-3168, hsa-miR-32-5p, hsa-miR-320a, hsa-miR-320b, hsa-miR-320c, hsa-miR-320d, hsa-miR-342-3p, hsa-miR-361-5p, hsa-miR-3681-5p, hsa-miR-374a-5p, hsa-miR-374b-5p, hsa-miR-378a-3p, hsa-miR-423-3p, hsa-miR-423-5p, hsa-miR-425-3p, hsa-miR-425-5p, hsa-miR-4286, hsa-miR-4454, hsa-miR-4485-3p, hsa-miR-451a, hsa-miR-484, hsa-miR-486-5p, hsa-miR-500a-3p, hsa-miR-501-3p, hsa-miR-550a-3-5p, hsa-miR-550a-5p, hsa-miR-584-5p, hsa-miR-589-5p, hsa-miR-6087, hsa-miR-628-3p, hsa-miR-629-5p, hsa-miR-7641, hsa-miR-7704, hsa-miR-92a-3p, hsa-miR-92b-3p, hsa-miR-941, hsa-miR-96-5p, hsa-miR-99b-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7g-5p, hsa-miR-10a-3p, hsa-miR-1273h-3p, hsa-miR-181a-2-3p, hsa-miR-199a-5p, hsa-miR-20a-5p, hsa-miR-455-5p, hsa-miR-942-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-103a-3p, hsa-miR-378c, hsa-miR-378d, hsa-miR-548e-3p, hsa-miR-629-3p, hsa-miR-6834-5p, hsa-miR-877-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-106a-5p, hsa-miR-1304-5p, hsa-miR-17-5p, hsa-miR-191-3p, hsa-miR-26a-1-3p, hsa-miR-3689a-5p, hsa-miR-3689b-5p, hsa-miR-3689e, hsa-miR-374b-3p, hsa-miR-375, hsa-miR-486-3p, hsa-miR-509-3p, hsa-miR-99a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-10b-5p, hsa-miR-21-3p, hsa-miR-3679-5p, hsa-miR-491-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1273h-5p, hsa-miR-183-3p, hsa-miR-195-5p, hsa-miR-25-5p, hsa-miR-340-3p, hsa-miR-3691-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1291, hsa-miR-19a-3p, hsa-miR-30b-5p, hsa-miR-452-5p, hsa-miR-6511a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1306-3p, hsa-miR-192-5p, hsa-miR-215-5p, hsa-miR-24-3p, hsa-miR-3127-5p, hsa-miR-342-5p, hsa-miR-502-3p, hsa-miR-532-5p, hsa-miR-619-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7b-5p, hsa-miR-106b-3p, hsa-miR-107, hsa-miR-1291, hsa-miR-16-2-3p, hsa-miR-17-3p, hsa-miR-184, hsa-miR-19a-3p, hsa-miR-202-3p, hsa-miR-30b-5p, hsa-miR-320d, hsa-miR-340-3p, hsa-miR-411-3p, hsa-miR-452-5p, hsa-miR-455-5p, hsa-miR-550a-3-5p, hsa-miR-550a-5p, hsa-miR-5696, hsa-miR-6511a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-103a-3p, hsa-miR-1260b, hsa-miR-1306-3p, hsa-miR-192-5p, hsa-miR-29c-3p, hsa-miR-342-5p, hsa-miR-378c, hsa-miR-378d, hsa-miR-526b-5p, hsa-miR-532-5p, hsa-miR-548e-3p, hsa-miR-629-3p, hsa-miR-767-5p, hsa-miR-877-5p, hsa-miR-93-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1273h-5p, hsa-miR-183-3p, hsa-miR-195-5p, hsa-miR-25-5p, hsa-miR-3691-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7a-5p, hsa-let-7c-5p, hsa-let-7e-5p, hsa-let-7f-5p, hsa-let-7i-5p, hsa-miR-101-3p, hsa-miR-10a-5p, hsa-miR-122-5p, hsa-miR-1255a, hsa-miR-125a-5p, hsa-miR-126-3p, hsa-miR-126-5p, hsa-miR-1307-5p, hsa-miR-130b-3p, hsa-miR-130b-5p, hsa-miR-140-3p, hsa-miR-142-5p, hsa-miR-144-3p, hsa-miR-146b-5p, hsa-miR-148a-3p, hsa-miR-151a-3p, hsa-miR-151a-5p, hsa-miR-151b, hsa-miR-15b-5p, hsa-miR-16-5p, hsa-miR-182-5p, hsa-miR-183-5p, hsa-miR-185-5p, hsa-miR-186-5p, hsa-miR-191-5p, hsa-miR-196a-5p, hsa-miR-200c-3p, hsa-miR-21-5p, hsa-miR-22-3p, hsa-miR-224-5p, hsa-miR-23a-3p, hsa-miR-25-3p, hsa-miR-26a-5p, hsa-miR-26b-5p, hsa-miR-27a-3p, hsa-miR-27b-3p, hsa-miR-29a-3p, hsa-miR-30d-5p, hsa-miR-30e-3p, hsa-miR-30e-5p, hsa-miR-3168, hsa-miR-3180-5p, hsa-miR-320a, hsa-miR-320b, hsa-miR-326, hsa-miR-342-3p, hsa-miR-361-5p, hsa-miR-374a-5p, hsa-miR-374b-5p, hsa-miR-378a-3p, hsa-miR-379-5p, hsa-miR-423-3p, hsa-miR-423-5p, hsa-miR-425-3p, hsa-miR-425-5p, hsa-miR-4454, hsa-miR-4485-3p, hsa-miR-484, hsa-miR-486-5p, hsa-miR-500a-3p, hsa-miR-501-3p, hsa-miR-584-5p, hsa-miR-589-5p, hsa-miR-6087, hsa-miR-628-3p, hsa-miR-629-5p, hsa-miR-642a-3p, hsa-miR-664a-5p, hsa-miR-6740-5p, hsa-miR-7641, hsa-miR-7704, hsa-miR-92a-3p, hsa-miR-92b-3p, hsa-miR-941, hsa-miR-96-5p, hsa-miR-99b-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7b-5p, hsa-miR-107, hsa-miR-10b-5p, hsa-miR-1291, hsa-miR-16-2-3p, hsa-miR-17-3p, hsa-miR-184, hsa-miR-199a-5p, hsa-miR-19a-3p, hsa-miR-19b-3p, hsa-miR-202-3p, hsa-miR-30a-3p, hsa-miR-30b-5p, hsa-miR-32-5p, hsa-miR-3609, hsa-miR-411-3p, hsa-miR-450b-5p, hsa-miR-455-5p, hsa-miR-4755-5p, hsa-miR-550a-3-5p, hsa-miR-550a-5p, hsa-miR-6511a-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7g-5p, hsa-miR-10a-3p, hsa-miR-181a-2-3p, hsa-miR-20a-5p, hsa-miR-23b-3p, hsa-miR-320c, hsa-miR-486-3p, hsa-miR-942-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-103a-3p, hsa-miR-1908-5p, hsa-miR-378c, hsa-miR-378d, hsa-miR-548e-3p, hsa-miR-629-3p, hsa-miR-6834-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-106a-5p, hsa-miR-1270, hsa-miR-1304-5p, hsa-miR-17-5p, hsa-miR-191-3p, hsa-miR-197-3p, hsa-miR-223-3p, hsa-miR-26a-1-3p, hsa-miR-30c-5p, hsa-miR-365a-3p, hsa-miR-365b-3p, hsa-miR-3689a-5p, hsa-miR-3689b-5p, hsa-miR-3689e, hsa-miR-374b-3p, hsa-miR-375, hsa-miR-451a, hsa-miR-452-5p, hsa-miR-509-3p, hsa-miR-574-5p, hsa-miR-577, hsa-miR-99a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1273h-5p, hsa-miR-183-3p, hsa-miR-25-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-128-3p, hsa-miR-224-3p, hsa-miR-320d, hsa-miR-33b-3p, hsa-miR-744-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-132-3p, hsa-miR-181a-5p, hsa-miR-374a-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-146a-5p, hsa-miR-3605-5p, hsa-miR-3679-5p, hsa-miR-526b-5p, hsa-miR-767-5p, hsa-miR-877-5p, hsa-miR-93-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-181b-5p, hsa-miR-199b-5p, hsa-miR-3180, hsa-miR-3180-3p</t>
+  </si>
+  <si>
+    <t>hsa-let-7a-5p, hsa-let-7b-5p, hsa-let-7c-5p, hsa-let-7e-5p, hsa-let-7f-5p, hsa-let-7g-5p, hsa-let-7i-5p, hsa-miR-101-3p, hsa-miR-10a-5p, hsa-miR-10b-5p, hsa-miR-122-5p, hsa-miR-1224-5p, hsa-miR-125a-5p, hsa-miR-126-3p, hsa-miR-126-5p, hsa-miR-128-3p, hsa-miR-1291, hsa-miR-1307-5p, hsa-miR-130b-3p, hsa-miR-130b-5p, hsa-miR-140-3p, hsa-miR-142-5p, hsa-miR-144-3p, hsa-miR-146b-5p, hsa-miR-148a-3p, hsa-miR-151a-3p, hsa-miR-151a-5p, hsa-miR-151b, hsa-miR-15b-5p, hsa-miR-16-5p, hsa-miR-182-5p, hsa-miR-183-5p, hsa-miR-184, hsa-miR-185-5p, hsa-miR-186-5p, hsa-miR-191-5p, hsa-miR-196a-5p, hsa-miR-197-3p, hsa-miR-199a-5p, hsa-miR-19a-3p, hsa-miR-200c-3p, hsa-miR-21-3p, hsa-miR-21-5p, hsa-miR-22-3p, hsa-miR-224-5p, hsa-miR-23a-3p, hsa-miR-23b-3p, hsa-miR-25-3p, hsa-miR-25-5p, hsa-miR-26a-5p, hsa-miR-26b-5p, hsa-miR-27a-3p, hsa-miR-27b-3p, hsa-miR-29a-3p, hsa-miR-29c-3p, hsa-miR-30b-5p, hsa-miR-30d-5p, hsa-miR-30e-3p, hsa-miR-30e-5p, hsa-miR-3168, hsa-miR-3180-5p, hsa-miR-320a, hsa-miR-320b, hsa-miR-340-3p, hsa-miR-342-3p, hsa-miR-361-5p, hsa-miR-3681-5p, hsa-miR-3687, hsa-miR-3689a-5p, hsa-miR-3689b-5p, hsa-miR-3689e, hsa-miR-374a-5p, hsa-miR-374b-5p, hsa-miR-378a-3p, hsa-miR-423-3p, hsa-miR-423-5p, hsa-miR-425-3p, hsa-miR-425-5p, hsa-miR-4286, hsa-miR-4454, hsa-miR-4485-3p, hsa-miR-452-5p, hsa-miR-455-5p, hsa-miR-484, hsa-miR-486-5p, hsa-miR-491-3p, hsa-miR-500a-3p, hsa-miR-501-3p, hsa-miR-550a-3-5p, hsa-miR-550a-5p, hsa-miR-5696, hsa-miR-589-5p, hsa-miR-6087, hsa-miR-628-3p, hsa-miR-629-5p, hsa-miR-6511a-5p, hsa-miR-6511b-5p, hsa-miR-664a-5p, hsa-miR-6740-5p, hsa-miR-6834-5p, hsa-miR-7641, hsa-miR-7704, hsa-miR-877-5p, hsa-miR-92a-3p, hsa-miR-92b-3p, hsa-miR-941, hsa-miR-96-5p, hsa-miR-99b-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-103a-3p, hsa-miR-107, hsa-miR-17-3p, hsa-miR-192-5p, hsa-miR-202-3p, hsa-miR-378c, hsa-miR-378d, hsa-miR-411-3p, hsa-miR-4742-5p, hsa-miR-548e-3p, hsa-miR-629-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-106a-5p, hsa-miR-1270, hsa-miR-1304-5p, hsa-miR-17-5p, hsa-miR-191-3p, hsa-miR-223-3p, hsa-miR-26a-1-3p, hsa-miR-30c-5p, hsa-miR-365a-3p, hsa-miR-365b-3p, hsa-miR-374b-3p, hsa-miR-375, hsa-miR-4516, hsa-miR-451a, hsa-miR-486-3p, hsa-miR-574-5p, hsa-miR-577, hsa-miR-99a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1273h-5p, hsa-miR-183-3p, hsa-miR-3691-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-146a-5p, hsa-miR-181a-5p, hsa-miR-199b-5p, hsa-miR-3679-5p, hsa-miR-509-3p, hsa-miR-526b-5p, hsa-miR-532-5p, hsa-miR-584-5p, hsa-miR-767-5p, hsa-miR-93-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-15b-3p, hsa-miR-16-2-3p, hsa-miR-181b-5p, hsa-miR-19b-3p, hsa-miR-3180, hsa-miR-3180-3p, hsa-miR-320d, hsa-miR-744-5p, hsa-miR-9-3p</t>
+  </si>
+  <si>
+    <t>hsa-let-7b-5p, hsa-miR-106b-3p, hsa-miR-107, hsa-miR-128-3p, hsa-miR-1291, hsa-miR-16-2-3p, hsa-miR-17-3p, hsa-miR-184, hsa-miR-19a-3p, hsa-miR-19b-3p, hsa-miR-202-3p, hsa-miR-30b-5p, hsa-miR-32-5p, hsa-miR-320d, hsa-miR-3609, hsa-miR-411-3p, hsa-miR-450b-5p, hsa-miR-455-5p, hsa-miR-4755-5p, hsa-miR-502-3p, hsa-miR-550a-3-5p, hsa-miR-550a-5p, hsa-miR-5696, hsa-miR-6511a-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7g-5p, hsa-miR-10a-3p, hsa-miR-1273h-3p, hsa-miR-181a-2-3p, hsa-miR-199a-5p, hsa-miR-20a-5p, hsa-miR-452-5p, hsa-miR-942-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-103a-3p, hsa-miR-1306-3p, hsa-miR-146a-5p, hsa-miR-192-5p, hsa-miR-25-5p, hsa-miR-342-5p, hsa-miR-378d, hsa-miR-548e-3p, hsa-miR-629-3p, hsa-miR-6834-5p, hsa-miR-767-5p, hsa-miR-877-5p, hsa-miR-92a-1-5p, hsa-miR-93-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-106a-5p, hsa-miR-1304-5p, hsa-miR-17-5p, hsa-miR-191-3p, hsa-miR-223-3p, hsa-miR-26a-1-3p, hsa-miR-30c-5p, hsa-miR-365a-3p, hsa-miR-365b-3p, hsa-miR-3689a-5p, hsa-miR-3689b-5p, hsa-miR-3689e, hsa-miR-374b-3p, hsa-miR-375, hsa-miR-4286, hsa-miR-451a, hsa-miR-577, hsa-miR-99a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-10b-5p, hsa-miR-1270, hsa-miR-21-3p, hsa-miR-491-3p, hsa-miR-532-5p, hsa-miR-574-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-15b-3p, hsa-miR-181b-5p, hsa-miR-199b-5p, hsa-miR-224-3p, hsa-miR-3180, hsa-miR-3180-3p, hsa-miR-33b-3p, hsa-miR-486-3p, hsa-miR-9-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-181a-5p, hsa-miR-3679-5p, hsa-miR-378c, hsa-miR-509-3p</t>
+  </si>
+  <si>
+    <t>hsa-let-7a-5p, hsa-let-7c-5p, hsa-let-7e-5p, hsa-let-7f-5p, hsa-let-7g-5p, hsa-let-7i-5p, hsa-miR-101-3p, hsa-miR-10a-5p, hsa-miR-122-5p, hsa-miR-1224-5p, hsa-miR-125a-5p, hsa-miR-126-3p, hsa-miR-126-5p, hsa-miR-1260b, hsa-miR-1270, hsa-miR-128-3p, hsa-miR-130b-3p, hsa-miR-130b-5p, hsa-miR-140-3p, hsa-miR-142-5p, hsa-miR-144-3p, hsa-miR-146b-3p, hsa-miR-146b-5p, hsa-miR-148a-3p, hsa-miR-151a-3p, hsa-miR-151a-5p, hsa-miR-151b, hsa-miR-15b-5p, hsa-miR-16-5p, hsa-miR-182-5p, hsa-miR-183-5p, hsa-miR-185-5p, hsa-miR-186-5p, hsa-miR-191-3p, hsa-miR-191-5p, hsa-miR-200c-3p, hsa-miR-21-5p, hsa-miR-215-5p, hsa-miR-22-3p, hsa-miR-224-5p, hsa-miR-23a-3p, hsa-miR-25-3p, hsa-miR-26a-5p, hsa-miR-26b-5p, hsa-miR-27a-3p, hsa-miR-27b-3p, hsa-miR-29a-3p, hsa-miR-30c-5p, hsa-miR-30d-5p, hsa-miR-30e-3p, hsa-miR-30e-5p, hsa-miR-3168, hsa-miR-3180-5p, hsa-miR-3195, hsa-miR-320a, hsa-miR-320b, hsa-miR-320c, hsa-miR-320d, hsa-miR-342-3p, hsa-miR-361-5p, hsa-miR-3681-5p, hsa-miR-374a-5p, hsa-miR-374b-5p, hsa-miR-378a-3p, hsa-miR-379-5p, hsa-miR-423-3p, hsa-miR-423-5p, hsa-miR-425-3p, hsa-miR-425-5p, hsa-miR-4286, hsa-miR-4454, hsa-miR-4485-3p, hsa-miR-484, hsa-miR-486-5p, hsa-miR-500a-3p, hsa-miR-501-3p, hsa-miR-502-3p, hsa-miR-577, hsa-miR-584-5p, hsa-miR-589-5p, hsa-miR-6087, hsa-miR-628-3p, hsa-miR-629-5p, hsa-miR-642a-3p, hsa-miR-671-3p, hsa-miR-744-5p, hsa-miR-7641, hsa-miR-7704, hsa-miR-92a-3p, hsa-miR-92b-3p, hsa-miR-941, hsa-miR-96-5p, hsa-miR-99b-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7b-5p, hsa-miR-106b-3p, hsa-miR-107, hsa-miR-17-3p, hsa-miR-184, hsa-miR-196a-5p, hsa-miR-199a-5p, hsa-miR-19a-3p, hsa-miR-202-3p, hsa-miR-30b-5p, hsa-miR-340-3p, hsa-miR-411-3p, hsa-miR-452-5p, hsa-miR-455-5p, hsa-miR-4742-5p, hsa-miR-550a-3-5p, hsa-miR-550a-5p, hsa-miR-5696, hsa-miR-6511a-5p, hsa-miR-664a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-103a-3p, hsa-miR-1306-3p, hsa-miR-342-5p, hsa-miR-378d, hsa-miR-629-3p, hsa-miR-6834-5p, hsa-miR-877-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1273h-5p, hsa-miR-183-3p, hsa-miR-195-5p, hsa-miR-25-5p, hsa-miR-3691-5p, hsa-miR-548e-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-146a-5p, hsa-miR-181a-5p, hsa-miR-199b-5p, hsa-miR-224-3p, hsa-miR-3679-5p, hsa-miR-375, hsa-miR-378c, hsa-miR-509-3p, hsa-miR-526b-5p, hsa-miR-532-5p, hsa-miR-767-5p, hsa-miR-93-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-15b-3p, hsa-miR-181b-5p, hsa-miR-33b-3p, hsa-miR-486-3p, hsa-miR-9-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-17-5p, hsa-miR-197-3p, hsa-miR-223-3p, hsa-miR-26a-1-3p, hsa-miR-365a-3p, hsa-miR-365b-3p, hsa-miR-3689a-5p, hsa-miR-3689b-5p, hsa-miR-3689e, hsa-miR-374b-3p, hsa-miR-4516, hsa-miR-451a, hsa-miR-574-5p, hsa-miR-99a-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7a-5p, hsa-let-7c-5p, hsa-let-7e-5p, hsa-let-7f-5p, hsa-let-7g-5p, hsa-let-7i-5p, hsa-miR-101-3p, hsa-miR-10a-3p, hsa-miR-10a-5p, hsa-miR-122-5p, hsa-miR-1224-5p, hsa-miR-125a-5p, hsa-miR-126-3p, hsa-miR-126-5p, hsa-miR-1260b, hsa-miR-1273h-3p, hsa-miR-130b-3p, hsa-miR-130b-5p, hsa-miR-140-3p, hsa-miR-142-5p, hsa-miR-144-3p, hsa-miR-146b-5p, hsa-miR-148a-3p, hsa-miR-151a-3p, hsa-miR-151a-5p, hsa-miR-151b, hsa-miR-15b-5p, hsa-miR-16-5p, hsa-miR-181a-2-3p, hsa-miR-182-5p, hsa-miR-183-5p, hsa-miR-185-5p, hsa-miR-186-5p, hsa-miR-191-3p, hsa-miR-191-5p, hsa-miR-196a-5p, hsa-miR-197-3p, hsa-miR-200c-3p, hsa-miR-20a-5p, hsa-miR-21-5p, hsa-miR-22-3p, hsa-miR-223-3p, hsa-miR-224-5p, hsa-miR-23a-3p, hsa-miR-23b-3p, hsa-miR-25-3p, hsa-miR-26a-5p, hsa-miR-26b-5p, hsa-miR-27a-3p, hsa-miR-27b-3p, hsa-miR-29a-3p, hsa-miR-29b-3p, hsa-miR-30d-5p, hsa-miR-30e-3p, hsa-miR-30e-5p, hsa-miR-3168, hsa-miR-3180-5p, hsa-miR-3195, hsa-miR-320a, hsa-miR-320b, hsa-miR-342-3p, hsa-miR-3605-3p, hsa-miR-361-5p, hsa-miR-374a-5p, hsa-miR-374b-5p, hsa-miR-378a-3p, hsa-miR-423-3p, hsa-miR-423-5p, hsa-miR-425-3p, hsa-miR-425-5p, hsa-miR-4454, hsa-miR-4485-3p, hsa-miR-4516, hsa-miR-4746-5p, hsa-miR-484, hsa-miR-486-5p, hsa-miR-500a-3p, hsa-miR-501-3p, hsa-miR-584-5p, hsa-miR-589-5p, hsa-miR-6087, hsa-miR-628-3p, hsa-miR-629-5p, hsa-miR-642a-3p, hsa-miR-7641, hsa-miR-7704, hsa-miR-92a-1-5p, hsa-miR-92a-3p, hsa-miR-92b-3p, hsa-miR-941, hsa-miR-942-5p, hsa-miR-96-5p, hsa-miR-99b-5p</t>
+  </si>
+  <si>
+    <t>hsa-let-7b-5p, hsa-miR-107, hsa-miR-17-3p, hsa-miR-202-3p, hsa-miR-411-3p, hsa-miR-5696</t>
+  </si>
+  <si>
+    <t>hsa-miR-103a-3p, hsa-miR-1306-3p, hsa-miR-146a-5p, hsa-miR-25-5p, hsa-miR-320c, hsa-miR-342-5p, hsa-miR-378d, hsa-miR-548e-3p, hsa-miR-629-3p, hsa-miR-6834-5p, hsa-miR-877-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-106a-5p, hsa-miR-1304-5p, hsa-miR-30a-3p, hsa-miR-450b-5p, hsa-miR-451a, hsa-miR-577, hsa-miR-638</t>
+  </si>
+  <si>
+    <t>hsa-miR-10b-5p, hsa-miR-1291, hsa-miR-199a-5p, hsa-miR-19a-3p, hsa-miR-30b-5p, hsa-miR-452-5p, hsa-miR-455-5p, hsa-miR-550a-3-5p, hsa-miR-550a-5p, hsa-miR-6511a-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-1273h-5p, hsa-miR-183-3p, hsa-miR-195-5p, hsa-miR-3691-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-128-3p, hsa-miR-15b-3p, hsa-miR-29c-3p, hsa-miR-3609, hsa-miR-3681-5p, hsa-miR-4755-5p, hsa-miR-526b-5p, hsa-miR-93-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-132-3p, hsa-miR-181a-5p, hsa-miR-3679-5p, hsa-miR-374a-3p, hsa-miR-378c, hsa-miR-509-3p, hsa-miR-767-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-16-2-3p, hsa-miR-181b-5p, hsa-miR-19b-3p, hsa-miR-3180, hsa-miR-3180-3p, hsa-miR-320d, hsa-miR-744-5p, hsa-miR-9-3p</t>
+  </si>
+  <si>
+    <t>hsa-miR-21-3p, hsa-miR-3127-5p, hsa-miR-491-3p, hsa-miR-574-5p</t>
+  </si>
+  <si>
+    <t>hsa-miR-215-5p, hsa-miR-224-3p, hsa-miR-30b-3p, hsa-miR-33b-3p, hsa-miR-454-5p, hsa-miR-502-3p, hsa-miR-6511a-3p</t>
+  </si>
 </sst>
 </file>
 
@@ -687,7 +1116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,6 +1125,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,7 +1426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1512"/>
+  <dimension ref="A1:G1512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1001,10 +1436,13 @@
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="76.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>201</v>
       </c>
@@ -1014,8 +1452,14 @@
       <c r="D1" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>165</v>
       </c>
@@ -1025,8 +1469,14 @@
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>165</v>
       </c>
@@ -1037,7 +1487,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>165</v>
       </c>
@@ -1048,7 +1498,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>165</v>
       </c>
@@ -1059,7 +1509,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>199</v>
       </c>
@@ -1070,7 +1520,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>199</v>
       </c>
@@ -1081,7 +1531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>199</v>
       </c>
@@ -1092,7 +1542,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>163</v>
       </c>
@@ -1103,7 +1553,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>163</v>
       </c>
@@ -1114,7 +1564,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>162</v>
       </c>
@@ -1125,7 +1575,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>162</v>
       </c>
@@ -1136,7 +1586,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>162</v>
       </c>
@@ -1147,7 +1597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>162</v>
       </c>
@@ -1158,7 +1608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>162</v>
       </c>
@@ -1169,7 +1619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>162</v>
       </c>
@@ -13154,17 +13604,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4081"/>
+  <dimension ref="A1:H4081"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="18.125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="78.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>201</v>
       </c>
@@ -13174,8 +13627,14 @@
       <c r="D1" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>165</v>
       </c>
@@ -13185,8 +13644,14 @@
       <c r="D2" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>165</v>
       </c>
@@ -13196,8 +13661,14 @@
       <c r="D3" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>165</v>
       </c>
@@ -13207,8 +13678,14 @@
       <c r="D4" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>165</v>
       </c>
@@ -13218,8 +13695,14 @@
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>165</v>
       </c>
@@ -13229,8 +13712,14 @@
       <c r="D6" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>165</v>
       </c>
@@ -13240,8 +13729,14 @@
       <c r="D7" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>165</v>
       </c>
@@ -13251,8 +13746,14 @@
       <c r="D8" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="G8" s="3">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>165</v>
       </c>
@@ -13262,8 +13763,14 @@
       <c r="D9" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="G9" s="3">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>165</v>
       </c>
@@ -13273,8 +13780,14 @@
       <c r="D10" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="G10" s="3">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>165</v>
       </c>
@@ -13284,8 +13797,14 @@
       <c r="D11" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>165</v>
       </c>
@@ -13295,8 +13814,14 @@
       <c r="D12" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="G12" s="3">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>165</v>
       </c>
@@ -13306,8 +13831,14 @@
       <c r="D13" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="G13" s="3">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>165</v>
       </c>
@@ -13317,8 +13848,14 @@
       <c r="D14" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="G14" s="3">
+        <v>13</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>165</v>
       </c>
@@ -13328,8 +13865,14 @@
       <c r="D15" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="G15" s="3">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>165</v>
       </c>
@@ -13339,8 +13882,14 @@
       <c r="D16" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="G16" s="3">
+        <v>15</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>165</v>
       </c>
@@ -13350,8 +13899,14 @@
       <c r="D17" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="G17" s="3">
+        <v>16</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>165</v>
       </c>
@@ -13361,8 +13916,14 @@
       <c r="D18" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="G18" s="3">
+        <v>17</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>165</v>
       </c>
@@ -13372,8 +13933,14 @@
       <c r="D19" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="G19" s="3">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>165</v>
       </c>
@@ -13383,8 +13950,14 @@
       <c r="D20" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="G20" s="3">
+        <v>19</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>165</v>
       </c>
@@ -13394,8 +13967,14 @@
       <c r="D21" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="G21" s="3">
+        <v>20</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>165</v>
       </c>
@@ -13405,952 +13984,1666 @@
       <c r="D22" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="G22" s="3">
+        <v>21</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="G23" s="3">
+        <v>22</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="G24" s="3">
+        <v>23</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="G25" s="3">
+        <v>24</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="G26" s="3">
+        <v>25</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="G27" s="3">
+        <v>26</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="G28" s="3">
+        <v>27</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="G29" s="3">
+        <v>28</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="G30" s="3">
+        <v>29</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="G31" s="3">
+        <v>30</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="G32" s="3">
+        <v>31</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="G33" s="3">
+        <v>32</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="G34" s="3">
+        <v>33</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="G35" s="3">
+        <v>34</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="G36" s="3">
+        <v>35</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="G37" s="3">
+        <v>36</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="G38" s="3">
+        <v>37</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="G39" s="3">
+        <v>38</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="G40" s="3">
+        <v>39</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="G41" s="3">
+        <v>40</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="G42" s="3">
+        <v>41</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="G43" s="3">
+        <v>42</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="G44" s="3">
+        <v>43</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="G45" s="3">
+        <v>44</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="G46" s="3">
+        <v>45</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="G47" s="3">
+        <v>46</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="G48" s="3">
+        <v>47</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="G49" s="3">
+        <v>48</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="G50" s="3">
+        <v>49</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="G51" s="3">
+        <v>50</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="G52" s="3">
+        <v>51</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="G53" s="3">
+        <v>52</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="G54" s="3">
+        <v>53</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="G55" s="3">
+        <v>54</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="G56" s="3">
+        <v>55</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="G57" s="3">
+        <v>56</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="G58" s="3">
+        <v>57</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="G59" s="3">
+        <v>58</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="G60" s="3">
+        <v>59</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="G61" s="3">
+        <v>60</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="G62" s="3">
+        <v>61</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="G63" s="3">
+        <v>62</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="G64" s="3">
+        <v>63</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="G65" s="3">
+        <v>64</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="G66" s="3">
+        <v>65</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="G67" s="3">
+        <v>66</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="G68" s="3">
+        <v>67</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="G69" s="3">
+        <v>68</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="G70" s="3">
+        <v>69</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="G71" s="3">
+        <v>70</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="G72" s="3">
+        <v>71</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="G73" s="3">
+        <v>72</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="G74" s="3">
+        <v>73</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="G75" s="3">
+        <v>74</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="G76" s="3">
+        <v>75</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="G77" s="3">
+        <v>76</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="G78" s="3">
+        <v>77</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="G79" s="3">
+        <v>78</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="G80" s="3">
+        <v>79</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="G81" s="3">
+        <v>80</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="G82" s="3">
+        <v>81</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="G83" s="3">
+        <v>82</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="G84" s="3">
+        <v>83</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="G85" s="3">
+        <v>84</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="G86" s="3">
+        <v>85</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="G87" s="3">
+        <v>86</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="G88" s="3">
+        <v>87</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="G89" s="3">
+        <v>88</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="G90" s="3">
+        <v>89</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="G91" s="3">
+        <v>90</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="G92" s="3">
+        <v>91</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="G93" s="3">
+        <v>92</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="G94" s="3">
+        <v>93</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="G95" s="3">
+        <v>94</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="G96" s="3">
+        <v>95</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="G97" s="3">
+        <v>96</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="G98" s="3">
+        <v>97</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="G99" s="3">
+        <v>98</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="G100" s="3">
+        <v>99</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="G102" s="3">
+        <v>101</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="G103" s="3">
+        <v>102</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="G104" s="3">
+        <v>103</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="G105" s="3">
+        <v>104</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="G106" s="3">
+        <v>105</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="G107" s="3">
+        <v>106</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="G108" s="3">
+        <v>107</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="G109" s="3">
+        <v>108</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="G110" s="3">
+        <v>109</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="G111" s="3">
+        <v>110</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="G112" s="3">
+        <v>111</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="G113" s="3">
+        <v>112</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="G114" s="3">
+        <v>113</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="G115" s="3">
+        <v>114</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="G116" s="3">
+        <v>115</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="G117" s="3">
+        <v>116</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="G118" s="3">
+        <v>117</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="G119" s="3">
+        <v>118</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="G120" s="3">
+        <v>119</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="G121" s="3">
+        <v>120</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="G122" s="3">
+        <v>121</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="G123" s="3">
+        <v>122</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="G124" s="3">
+        <v>123</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="G125" s="3">
+        <v>124</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="G126" s="3">
+        <v>125</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="G127" s="3">
+        <v>126</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="G128" s="3">
+        <v>127</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="G129" s="3">
+        <v>128</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="G130" s="3">
+        <v>129</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="G131" s="3">
+        <v>130</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="G132" s="3">
+        <v>131</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="G133" s="3">
+        <v>132</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="G134" s="3">
+        <v>133</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="G135" s="3">
+        <v>134</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="G136" s="3">
+        <v>135</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="G137" s="3">
+        <v>136</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="G138" s="3">
+        <v>137</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="G139" s="3">
+        <v>138</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="G140" s="3">
+        <v>139</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
         <v>160</v>
       </c>
@@ -14358,7 +15651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
         <v>160</v>
       </c>
@@ -14366,7 +15659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
         <v>160</v>
       </c>
@@ -14374,7 +15667,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
         <v>160</v>
       </c>
